--- a/BackTest/2020-01-20 BackTest FNB.xlsx
+++ b/BackTest/2020-01-20 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2969044.486303442</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2919357.953803442</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2895079.685403442</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2858311.759503442</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1668212.753665873</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1667963.753965873</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1535764.060465873</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1158590.081065872</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>845968.6757658725</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>248543.8460658725</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2114546.996234127</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-10005072.37969302</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-9559618.731230589</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5459884.306424259</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-5403652.803524259</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-5036737.823624259</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-5012056.205424258</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-4146227.772001433</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-4466221.112401432</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-4465989.112401432</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4465989.112401432</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-4289169.792924258</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-4289169.792924258</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3921106.759924258</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4147735.546224258</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3227042.676224258</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-3397563.923624258</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3421252.749024258</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3426090.455524258</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4566237.466924258</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4541276.030924257</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4542091.629124257</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4535029.589524257</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4542077.447424257</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4532414.800824258</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4534462.658724258</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4993713.320724258</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5008793.343624258</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5312800.150624258</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4839234.823024258</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-4833813.246624258</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5220982.616724258</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5220760.616724258</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5821369.511524258</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-6521469.140224258</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-6521469.140224258</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-6205582.095024259</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-6205582.095024259</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-6235199.859224259</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-6230085.872224259</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-6230395.799524259</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-6230395.799524259</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-6225526.634724258</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-6236675.232724259</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-7604384.508924259</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-7777784.745424259</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-8093981.324224259</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-8810280.704624258</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-9827869.174124258</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10946967.86302426</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-9878778.784924258</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-9437099.516424257</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7161575.286924258</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-6974824.256124258</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-6760810.987150769</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-7122914.076290521</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -13915,11 +13915,17 @@
         <v>-19893295.98186839</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +13958,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +13995,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14032,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14069,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14102,17 @@
         <v>-19849217.29096839</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.23</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14141,17 @@
         <v>-19849217.29096839</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2.221</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14180,17 @@
         <v>-20120196.29096839</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.221</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14219,17 @@
         <v>-20587695.60706839</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2.213</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14258,17 @@
         <v>-18583484.74728743</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.211</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14301,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14338,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14375,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14412,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14449,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14486,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14523,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14560,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14597,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14634,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14667,17 @@
         <v>-21148719.91098743</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2.211</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14710,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14743,17 @@
         <v>-20857629.05628743</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2.211</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14786,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14819,17 @@
         <v>-21156121.43638743</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.235</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14858,17 @@
         <v>-21259415.63818743</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.231</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14897,17 @@
         <v>-21795767.04608743</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2.21</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14936,17 @@
         <v>-24329407.69858743</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2.209</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14975,17 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15014,17 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2.21</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15053,17 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2.21</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15092,17 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,15 +15131,17 @@
         <v>-24316121.90508743</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>2.2</v>
       </c>
-      <c r="J442" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,15 +15170,15 @@
         <v>-23083349.49788743</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
@@ -15047,15 +15209,15 @@
         <v>-23083542.49788743</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L444" t="n">
@@ -15086,11 +15248,17 @@
         <v>-23083542.49788743</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2.233</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15119,11 +15287,17 @@
         <v>-22736423.99228743</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2.233</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15152,11 +15326,17 @@
         <v>-22580645.52421676</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.239</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15185,11 +15365,17 @@
         <v>-22581089.52421676</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2.247</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15222,7 +15408,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15255,7 +15445,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15284,11 +15478,17 @@
         <v>-24457700.25841676</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2.236</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15321,7 +15521,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15354,7 +15558,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15387,7 +15595,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15420,7 +15632,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15453,7 +15669,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15486,7 +15706,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15519,7 +15743,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15552,7 +15780,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15585,7 +15817,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15618,7 +15854,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15651,7 +15891,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15684,7 +15928,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15717,7 +15965,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15750,7 +16002,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15779,15 +16035,13 @@
         <v>-22447108.92464463</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>2.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L466" t="n">
@@ -15818,11 +16072,9 @@
         <v>-22447338.92464463</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>2.284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -15857,11 +16109,9 @@
         <v>-22493138.50344463</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>2.272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -15896,11 +16146,9 @@
         <v>-22492908.50344463</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>2.261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -15935,11 +16183,9 @@
         <v>-22626446.77874463</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2.264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -15974,11 +16220,9 @@
         <v>-22626216.77874463</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2.241</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16013,11 +16257,9 @@
         <v>-22631260.77874463</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2.255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16052,11 +16294,9 @@
         <v>-22631260.77874463</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>2.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16091,11 +16331,9 @@
         <v>-22637832.80264463</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16130,7 +16368,7 @@
         <v>-21714333.73214462</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>2.233</v>
@@ -16169,7 +16407,7 @@
         <v>-21714333.73214462</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>2.24</v>
@@ -16208,7 +16446,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>2.24</v>
@@ -16247,7 +16485,7 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>2.247</v>
@@ -16338,6 +16576,6 @@
       <c r="M480" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FNB.xlsx
+++ b/BackTest/2020-01-20 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>2919357.953803442</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2948185.328603442</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2537215.728203442</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1180659.710703442</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1174560.503903442</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1129089.195503442</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1668212.753665873</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1667963.753965873</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1535764.060465873</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1158590.081065872</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>845968.6757658725</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>248543.8460658725</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>248763.4238658725</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>252838.3555658725</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>202838.3555658725</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>423070.9717658724</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>422830.9717658724</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>423532.9717658724</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-323381.0453341276</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>768135.9873658724</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-7531256.396934127</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-10043320.51809302</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-10005072.37969302</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-9559618.731230589</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-9212007.074024258</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-8046793.726824258</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5191185.148224259</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5641185.148224259</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3921106.759924258</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3227042.676224258</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3421252.749024258</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3426090.455524258</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4566237.466924258</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4549100.075724257</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4541276.030924257</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4542091.629124257</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4535029.589524257</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4542077.447424257</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4532414.800824258</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4534462.658724258</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4993713.320724258</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5008793.343624258</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5312800.150624258</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4839234.823024258</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-4833813.246624258</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5220982.616724258</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5220760.616724258</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5821369.511524258</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-6521469.140224258</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-6521469.140224258</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-6205582.095024259</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-6205582.095024259</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-6235199.859224259</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-6230085.872224259</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-6230395.799524259</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-6230395.799524259</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-6225526.634724258</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-6236675.232724259</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-7604384.508924259</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-7777784.745424259</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-8093981.324224259</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-8810280.704624258</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-9827869.174124258</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10946967.86302426</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-9878778.784924258</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-9437099.516424257</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7161575.286924258</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-7122914.076290521</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-7356437.716290521</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-7356116.716290521</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-8523595.688290522</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-8522818.688290522</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-7005107.030790522</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-7576064.910390521</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-8015286.924290522</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-8059373.228990521</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-8567952.922690522</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13915,17 +13915,11 @@
         <v>-19893295.98186839</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>2.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13995,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14032,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14069,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14102,17 +14080,11 @@
         <v>-19849217.29096839</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14141,17 +14113,11 @@
         <v>-19849217.29096839</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>2.221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14180,17 +14146,11 @@
         <v>-20120196.29096839</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>2.221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14219,17 +14179,11 @@
         <v>-20587695.60706839</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>2.213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14258,17 +14212,11 @@
         <v>-18583484.74728743</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>2.211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14301,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14338,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14375,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14412,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14449,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14486,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14523,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14560,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14597,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14634,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14675,7 +14583,7 @@
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -14743,11 +14651,9 @@
         <v>-20857629.05628743</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>2.211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14819,11 +14725,9 @@
         <v>-21156121.43638743</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2.235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -14858,11 +14762,9 @@
         <v>-21259415.63818743</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>2.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -14897,11 +14799,9 @@
         <v>-21795767.04608743</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -14936,11 +14836,9 @@
         <v>-24329407.69858743</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>2.209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15092,11 +14990,9 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>2.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15209,11 +15105,9 @@
         <v>-23083542.49788743</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>2.235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15248,11 +15142,9 @@
         <v>-23083542.49788743</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>2.233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15287,11 +15179,9 @@
         <v>-22736423.99228743</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>2.233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15326,11 +15216,9 @@
         <v>-22580645.52421676</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>2.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15365,11 +15253,9 @@
         <v>-22581089.52421676</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>2.247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15478,11 +15364,9 @@
         <v>-24457700.25841676</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>2.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15665,18 +15549,16 @@
         <v>-23715782.6435556</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="inlineStr"/>
     </row>
     <row r="457">
@@ -15702,15 +15584,11 @@
         <v>-23716012.6435556</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15743,11 +15621,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15780,11 +15654,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15817,11 +15687,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15854,11 +15720,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15891,11 +15753,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +15786,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15965,11 +15819,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16002,11 +15852,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16039,11 +15885,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16076,11 +15918,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16113,11 +15951,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16150,11 +15984,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16187,11 +16017,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16224,11 +16050,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16261,11 +16083,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16298,11 +16116,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16335,11 +16149,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16376,7 +16186,7 @@
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16446,11 +16256,9 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16485,11 +16293,9 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>2.247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16576,6 +16382,6 @@
       <c r="M480" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FNB.xlsx
+++ b/BackTest/2020-01-20 BackTest FNB.xlsx
@@ -484,7 +484,7 @@
         <v>2919357.953803442</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2948185.328603442</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2537215.728203442</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>231531.3163034423</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19962.27639655775</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1180659.710703442</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1174560.503903442</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1129089.195503442</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1200813.987403442</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1338002.424203442</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1179366.681065873</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1668212.753665873</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1667963.753965873</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1535542.060465873</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1535764.060465873</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1158590.081065872</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>845968.6757658725</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>248543.8460658725</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>248763.4238658725</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>252838.3555658725</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>202838.3555658725</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>423070.9717658724</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>422830.9717658724</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>423532.9717658724</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>423782.9717658724</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-323381.0453341276</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-393746.9243341276</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-393446.9243341276</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>763895.9873658724</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>768135.9873658724</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-7531256.396934127</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-10043320.51809302</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-10005072.37969302</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-9559618.731230589</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-9212007.074024258</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-8046793.726824258</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5191185.148224259</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5641185.148224259</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-5487321.99372426</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3921106.759924258</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4147735.546224258</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3227042.676224258</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-3397563.923624258</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3430365.545824258</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3421252.749024258</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3421864.600324258</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3426090.455524258</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4566237.466924258</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4557433.120624257</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4542091.629124257</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4535029.589524257</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4532414.800824258</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4534462.658724258</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4993713.320724258</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-7356437.716290521</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-7356116.716290521</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-8523595.688290522</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-8522818.688290522</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-7005107.030790522</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-7576064.910390521</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-7575842.910390521</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-8015286.924290522</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-8059373.228990521</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-8567952.922690522</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-9076707.505490523</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-9076257.505490523</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14575,17 +14575,11 @@
         <v>-21148719.91098743</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>2.211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14618,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14655,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14692,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14729,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14766,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14803,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14840,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14873,17 +14839,11 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14912,17 +14872,11 @@
         <v>-24075673.20408743</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>2.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14951,17 +14905,11 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>2.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14990,13 +14938,15 @@
         <v>-24317848.90508743</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L441" t="n">
@@ -15549,16 +15499,18 @@
         <v>-23715782.6435556</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
       <c r="M456" t="inlineStr"/>
     </row>
     <row r="457">
@@ -15584,11 +15536,17 @@
         <v>-23716012.6435556</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2.258</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15617,11 +15575,17 @@
         <v>-23716242.6435556</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.256</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15650,11 +15614,17 @@
         <v>-23716472.6435556</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.254</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +15653,17 @@
         <v>-23494477.0911951</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.252</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15716,11 +15692,17 @@
         <v>-22724311.29040505</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.253</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15749,11 +15731,17 @@
         <v>-22543314.40620505</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.255</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15782,11 +15770,17 @@
         <v>-22543314.40620505</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.256</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15815,11 +15809,17 @@
         <v>-22543544.40620505</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2.256</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15848,11 +15848,17 @@
         <v>-23659014.99050505</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2.255</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15881,11 +15887,17 @@
         <v>-22447108.92464463</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2.239</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15914,11 +15926,17 @@
         <v>-22447338.92464463</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2.284</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15947,11 +15965,17 @@
         <v>-22493138.50344463</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.272</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15984,7 +16008,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16017,7 +16045,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16050,7 +16082,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16083,7 +16119,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16116,7 +16156,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16145,11 +16189,17 @@
         <v>-22637832.80264463</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.236</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16186,7 +16236,7 @@
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
@@ -16256,9 +16306,11 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16293,9 +16345,11 @@
         <v>-21714103.73214462</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2.247</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16330,9 +16384,11 @@
         <v>-22990226.87624462</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2.247</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16367,9 +16423,11 @@
         <v>-23052383.96324462</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
